--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-familymemberhistory.xlsx
@@ -252,11 +252,11 @@
     <t>*</t>
   </si>
   <si>
-    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者に関連する情報（家族歴）</t>
+    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者の診療に関連する情報（家族歴）</t>
   </si>
   <si>
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
-患者の診療に関連する患者家族の健康状態。</t>
+患者の診療に関連する患者家族の疾患。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -560,7 +560,10 @@
   </si>
   <si>
     <t>Describes why the family member's history is not available.
-1)subject-unknown:患者が対象の家族のことを知らない（例:患者は養子のため実親を知らない）, 2)withheld:患者が家族歴の共有を拒否, 3)unable-to-obtain:患者から聞き取れない（例：患者が意識不明）, 4)deferred:患者は今は知らないが、後日共有するつもりである。</t>
+1)subject-unknown:患者が対象の家族のことを知らない（例:患者は養子のため実親を知らない）
+2)withheld:患者が家族歴の共有を拒否
+3)unable-to-obtain:患者から聞き取れない（例：患者が意識不明）
+4)deferred:患者は今は知らないが、後日共有するつもりである</t>
   </si>
   <si>
     <t>This is a separate element to allow it to have a distinct binding from reasonCode.</t>
@@ -653,7 +656,8 @@
     <t>Relationship to the subject</t>
   </si>
   <si>
-    <t>The type of relationship this person has to the patient (father, mother, brother etc.). 患者と家族との関係の種類（父、母、兄弟など）</t>
+    <t>The type of relationship this person has to the patient (father, mother, brother etc.). 
+患者と家族との関係の種類（父、母、兄弟など）</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
@@ -726,7 +730,7 @@
   </si>
   <si>
     <t>The age of the relative at the time the family member history is recorded.
-家族歴が記録された時点の親族の年齢。</t>
+家族歴が記録された時点のその家族の年齢。</t>
   </si>
   <si>
     <t>use estimatedAge to indicate whether the age is actual or not.</t>
@@ -750,7 +754,7 @@
   </si>
   <si>
     <t>If true, indicates that the age value specified is an estimated value.
-年齢が推定かどうか。</t>
+この年齢が推定かどうか。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
@@ -789,7 +793,8 @@
     <t>Why was family member history performed?</t>
   </si>
   <si>
-    <t>Describes why the family member history occurred in coded or textual form. 家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
+    <t>Describes why the family member history occurred in coded or textual form.
+家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
   </si>
   <si>
     <t>Textual reasons can be captured using reasonCode.text.</t>
@@ -977,7 +982,7 @@
   </si>
   <si>
     <t>An area where general notes can be placed about this specific condition.
-この特定の条件についての一般的なメモを記録することができる。</t>
+この家族の疾患についての一般的なメモ。</t>
   </si>
 </sst>
 </file>
